--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>1.223836991802152</v>
+        <v>1.003756253906252</v>
       </c>
       <c r="C3">
-        <v>0.8905125301442052</v>
+        <v>0.8212989654785341</v>
       </c>
       <c r="D3">
-        <v>1.141887928483976</v>
+        <v>1.287693099940079</v>
       </c>
       <c r="E3">
         <v>1.218009596270675</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>1.218009596270675</v>
       </c>
-      <c r="BA3">
-        <v>1.218009596270675</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>1.156986202028487</v>
+        <v>1.003756253906229</v>
       </c>
       <c r="C4">
-        <v>0.8568864346264693</v>
+        <v>0.8527132153202777</v>
       </c>
       <c r="D4">
-        <v>-0.009976147720958117</v>
+        <v>1.224010362214401</v>
       </c>
       <c r="E4">
-        <v>-0.4641323501900163</v>
+        <v>1.183007486132071</v>
       </c>
       <c r="F4">
-        <v>0.4727443609437554</v>
+        <v>0.5167526861706184</v>
       </c>
       <c r="G4">
         <v>0.5544720893820188</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>0.5544720893820188</v>
       </c>
-      <c r="BA4">
-        <v>0.5544720893820188</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.8806713589633475</v>
-      </c>
       <c r="D5">
-        <v>0.646003525296468</v>
+        <v>1.171780765338659</v>
       </c>
       <c r="E5">
-        <v>-0.3757413950324251</v>
+        <v>1.129754998932886</v>
       </c>
       <c r="F5">
-        <v>0.8750396351479228</v>
+        <v>0.9718821796794952</v>
       </c>
       <c r="G5">
-        <v>0.7953247379026918</v>
+        <v>1.015842920196763</v>
       </c>
       <c r="H5">
-        <v>1.249231320663591</v>
+        <v>1.187829657075357</v>
       </c>
       <c r="I5">
         <v>1.173294700162031</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>1.173294700162031</v>
       </c>
-      <c r="BA5">
-        <v>1.173294700162031</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>0.1000375062504277</v>
-      </c>
       <c r="F6">
-        <v>0.862777477486798</v>
+        <v>0.9030420588129306</v>
       </c>
       <c r="G6">
-        <v>0.7684742600958083</v>
+        <v>0.9131100874974818</v>
       </c>
       <c r="H6">
-        <v>1.299794360170026</v>
+        <v>1.00065194548169</v>
       </c>
       <c r="I6">
-        <v>1.205864328335093</v>
+        <v>0.9092565586104273</v>
       </c>
       <c r="J6">
-        <v>1.1299540917866</v>
+        <v>1.071158385438342</v>
       </c>
       <c r="K6">
         <v>1.180518841971723</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>1.180518841971723</v>
       </c>
-      <c r="BA6">
-        <v>1.180518841971723</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>0.7118926129364267</v>
-      </c>
       <c r="H7">
-        <v>1.054141614904291</v>
+        <v>1.013831818446054</v>
       </c>
       <c r="I7">
-        <v>1.567567229806022</v>
+        <v>0.8527132153202999</v>
       </c>
       <c r="J7">
-        <v>1.178860822849148</v>
+        <v>0.912403143334517</v>
       </c>
       <c r="K7">
-        <v>1.508698476056081</v>
+        <v>1.236730309040235</v>
       </c>
       <c r="L7">
-        <v>0.9276272455014611</v>
+        <v>0.9553801317191413</v>
       </c>
       <c r="M7">
         <v>0.9276272455014611</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>0.9276272455014611</v>
       </c>
-      <c r="BA7">
-        <v>0.9276272455014611</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.296253802623548</v>
-      </c>
       <c r="J8">
-        <v>1.134797399475285</v>
+        <v>0.8929747835070723</v>
       </c>
       <c r="K8">
-        <v>1.548716943986528</v>
+        <v>1.175143392401168</v>
       </c>
       <c r="L8">
-        <v>1.084477549268992</v>
+        <v>1.066801818459595</v>
       </c>
       <c r="M8">
-        <v>1.129954091786578</v>
+        <v>1.029015928490629</v>
       </c>
       <c r="N8">
-        <v>1.30704451907393</v>
+        <v>1.190496724073231</v>
       </c>
       <c r="O8">
         <v>1.265990289415564</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>1.265990289415564</v>
       </c>
-      <c r="BA8">
-        <v>1.265990289415564</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.447794679196179</v>
-      </c>
       <c r="L9">
-        <v>1.084381878514362</v>
+        <v>1.084381878514384</v>
       </c>
       <c r="M9">
-        <v>1.144734214226295</v>
+        <v>1.044063034969711</v>
       </c>
       <c r="N9">
-        <v>1.664641675992118</v>
+        <v>1.154811676806311</v>
       </c>
       <c r="O9">
-        <v>1.715659375508571</v>
+        <v>1.358148715145191</v>
       </c>
       <c r="P9">
-        <v>1.578526694644333</v>
+        <v>1.5464392869869</v>
       </c>
       <c r="Q9">
         <v>1.642047742738506</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>1.642047742738506</v>
       </c>
-      <c r="BA9">
-        <v>1.642047742738506</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.044063034969733</v>
-      </c>
       <c r="N10">
-        <v>1.286157117685782</v>
+        <v>1.124712786946547</v>
       </c>
       <c r="O10">
-        <v>1.708971334792087</v>
+        <v>1.200971162216891</v>
       </c>
       <c r="P10">
-        <v>1.426979667494721</v>
+        <v>1.247870081683522</v>
       </c>
       <c r="Q10">
-        <v>1.470010055742232</v>
+        <v>1.528208222695326</v>
       </c>
       <c r="R10">
-        <v>1.725489977756145</v>
+        <v>1.701952652941463</v>
       </c>
       <c r="S10">
         <v>1.66194179127146</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>1.66194179127146</v>
       </c>
-      <c r="BA10">
-        <v>1.66194179127146</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.605172687299827</v>
-      </c>
       <c r="P11">
-        <v>1.459520918994839</v>
+        <v>1.237299829452354</v>
       </c>
       <c r="Q11">
-        <v>1.30863518097073</v>
+        <v>1.459520918994883</v>
       </c>
       <c r="R11">
-        <v>1.63410242004518</v>
+        <v>1.637918813512695</v>
       </c>
       <c r="S11">
-        <v>1.616008876909447</v>
+        <v>1.634928000057778</v>
       </c>
       <c r="T11">
-        <v>1.501780248496876</v>
+        <v>1.580693894992691</v>
       </c>
       <c r="U11">
         <v>1.609733807897773</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>1.609733807897773</v>
       </c>
-      <c r="BA11">
-        <v>1.609733807897773</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.480145392752408</v>
-      </c>
       <c r="R12">
-        <v>1.611155796825647</v>
+        <v>1.619591180870428</v>
       </c>
       <c r="S12">
-        <v>1.616573770437157</v>
+        <v>1.639835143158264</v>
       </c>
       <c r="T12">
-        <v>1.217962330084799</v>
+        <v>1.610567777412109</v>
       </c>
       <c r="U12">
-        <v>1.590469215865564</v>
+        <v>1.67176973076042</v>
       </c>
       <c r="V12">
-        <v>1.755561861459198</v>
+        <v>1.651937828695615</v>
       </c>
       <c r="W12">
-        <v>1.651362568149239</v>
+        <v>1.646565058924154</v>
       </c>
       <c r="X12">
-        <v>1.641178243814534</v>
+        <v>1.642460763882414</v>
       </c>
       <c r="Y12">
         <v>1.641178243814534</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>1.641178243814534</v>
       </c>
-      <c r="BA12">
-        <v>1.641178243814534</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.654564388925883</v>
-      </c>
-      <c r="S13">
-        <v>1.628093276666887</v>
-      </c>
       <c r="T13">
-        <v>1.250939458317069</v>
+        <v>1.624044593087226</v>
       </c>
       <c r="U13">
-        <v>1.555323375384354</v>
+        <v>1.658462259692217</v>
       </c>
       <c r="V13">
-        <v>1.926039468644802</v>
+        <v>1.63821551487775</v>
       </c>
       <c r="W13">
-        <v>1.769319546243286</v>
+        <v>1.636439239090515</v>
       </c>
       <c r="X13">
-        <v>1.794850390332114</v>
+        <v>1.62621273827539</v>
       </c>
       <c r="Y13">
-        <v>1.771972203993366</v>
+        <v>1.603287858019664</v>
       </c>
       <c r="Z13">
-        <v>1.584399974297779</v>
+        <v>1.504616869537312</v>
       </c>
       <c r="AA13">
-        <v>1.436930974076023</v>
+        <v>1.619750436871126</v>
       </c>
       <c r="AB13">
-        <v>1.233734107395001</v>
+        <v>1.242963308065193</v>
       </c>
       <c r="AC13">
         <v>1.183163144818633</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>1.183163144818633</v>
       </c>
-      <c r="BA13">
-        <v>1.183163144818633</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.326548386659154</v>
-      </c>
-      <c r="U14">
+      <c r="W14">
+        <v>1.63821551487775</v>
+      </c>
+      <c r="X14">
+        <v>1.630018843167003</v>
+      </c>
+      <c r="Y14">
+        <v>1.599505522959754</v>
+      </c>
+      <c r="Z14">
         <v>1.599505522959732</v>
       </c>
-      <c r="V14">
-        <v>1.82363228467457</v>
-      </c>
-      <c r="W14">
-        <v>1.734722862150506</v>
-      </c>
-      <c r="X14">
-        <v>1.742626455643048</v>
-      </c>
-      <c r="Y14">
-        <v>1.322776438978934</v>
-      </c>
-      <c r="Z14">
-        <v>1.381429930467726</v>
-      </c>
       <c r="AA14">
-        <v>1.164871729964068</v>
+        <v>1.669486277487398</v>
       </c>
       <c r="AB14">
-        <v>0.9628637208823232</v>
+        <v>1.082447181878954</v>
       </c>
       <c r="AC14">
-        <v>0.6359715250869202</v>
+        <v>0.8408455317168162</v>
       </c>
       <c r="AD14">
-        <v>0.6125740497801901</v>
+        <v>0.6216637650511503</v>
       </c>
       <c r="AE14">
-        <v>-2.611320921915661</v>
+        <v>0.2954364073068261</v>
       </c>
       <c r="AF14">
-        <v>-3.450801915528212</v>
+        <v>-3.662861831460751</v>
       </c>
       <c r="AG14">
         <v>-3.662861831460751</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-3.662861831460751</v>
       </c>
-      <c r="BA14">
-        <v>-3.662861831460751</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>1.842596721852874</v>
-      </c>
-      <c r="W15">
-        <v>1.720996659718632</v>
-      </c>
-      <c r="X15">
-        <v>1.729099941018197</v>
-      </c>
-      <c r="Y15">
-        <v>1.141186302839547</v>
-      </c>
-      <c r="Z15">
-        <v>1.281301991591532</v>
-      </c>
       <c r="AA15">
-        <v>1.226655249383346</v>
+        <v>1.635941430694832</v>
       </c>
       <c r="AB15">
-        <v>1.165967347094798</v>
+        <v>1.352809188882431</v>
       </c>
       <c r="AC15">
-        <v>1.286296191913139</v>
+        <v>1.251834034633581</v>
       </c>
       <c r="AD15">
-        <v>1.404132125351443</v>
+        <v>1.126729649114599</v>
       </c>
       <c r="AE15">
-        <v>3.850129105119438</v>
+        <v>0.8326407735962826</v>
       </c>
       <c r="AF15">
-        <v>4.307664622184548</v>
+        <v>-1.110565553434917</v>
       </c>
       <c r="AG15">
-        <v>2.927704432898959</v>
+        <v>-1.875058665585216</v>
       </c>
       <c r="AH15">
-        <v>0.3647198962692944</v>
+        <v>-3.604628722764358</v>
       </c>
       <c r="AI15">
-        <v>-0.4361073826740891</v>
+        <v>-1.564297238929013</v>
       </c>
       <c r="AJ15">
-        <v>0.1757848091566316</v>
+        <v>0.1010915562932313</v>
       </c>
       <c r="AK15">
         <v>0.1010915562932313</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>0.1010915562932313</v>
       </c>
-      <c r="BA15">
-        <v>0.1010915562932313</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.403325078255069</v>
-      </c>
-      <c r="Z16">
-        <v>1.407367165006268</v>
-      </c>
-      <c r="AA16">
-        <v>1.261928153378733</v>
-      </c>
-      <c r="AB16">
-        <v>1.100512793965991</v>
-      </c>
-      <c r="AC16">
-        <v>1.177988177915745</v>
-      </c>
-      <c r="AD16">
-        <v>1.406312715620039</v>
-      </c>
       <c r="AE16">
-        <v>2.524379042670999</v>
+        <v>0.9151237836431569</v>
       </c>
       <c r="AF16">
-        <v>1.879987986940446</v>
+        <v>-0.8254326060611827</v>
       </c>
       <c r="AG16">
-        <v>1.997414758748706</v>
+        <v>-1.301598234879375</v>
       </c>
       <c r="AH16">
-        <v>3.541600502121756</v>
+        <v>-2.856219939917704</v>
       </c>
       <c r="AI16">
-        <v>7.28622760880111</v>
+        <v>0.1548119563699935</v>
       </c>
       <c r="AJ16">
-        <v>9.515221393159411</v>
+        <v>6.64637963114707</v>
       </c>
       <c r="AK16">
-        <v>9.892324944215902</v>
+        <v>5.03478667886097</v>
       </c>
       <c r="AL16">
-        <v>6.577442533483757</v>
+        <v>5.220550987750228</v>
       </c>
       <c r="AM16">
-        <v>6.173185202525522</v>
+        <v>5.937304773291885</v>
       </c>
       <c r="AN16">
-        <v>6.15369818068785</v>
+        <v>5.793673192389748</v>
       </c>
       <c r="AO16">
         <v>5.793673192389748</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>5.793673192389748</v>
       </c>
-      <c r="BA16">
-        <v>5.793673192389748</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.092447094932791</v>
-      </c>
-      <c r="AD17">
-        <v>1.20460358889285</v>
-      </c>
-      <c r="AE17">
-        <v>1.415050864844392</v>
-      </c>
-      <c r="AF17">
-        <v>1.261928153378755</v>
-      </c>
-      <c r="AG17">
-        <v>3.222278212009777</v>
-      </c>
       <c r="AH17">
-        <v>3.067911635157605</v>
+        <v>-2.405982383662564</v>
       </c>
       <c r="AI17">
-        <v>3.657440533586453</v>
+        <v>-1.150651722479712</v>
       </c>
       <c r="AJ17">
-        <v>4.000252547967253</v>
+        <v>1.193655840614771</v>
       </c>
       <c r="AK17">
-        <v>1.833405760034057</v>
+        <v>0.8711813995756934</v>
       </c>
       <c r="AL17">
-        <v>4.756787562426035</v>
+        <v>1.043506288584606</v>
       </c>
       <c r="AM17">
-        <v>4.358310855341885</v>
+        <v>2.150399152794202</v>
       </c>
       <c r="AN17">
-        <v>3.641402330987509</v>
+        <v>1.728278600643907</v>
       </c>
       <c r="AO17">
-        <v>-1.030443073022624</v>
+        <v>2.399708479013141</v>
       </c>
       <c r="AP17">
-        <v>-0.4918103610675129</v>
+        <v>0.156542203858212</v>
       </c>
       <c r="AQ17">
-        <v>-0.234006599140768</v>
+        <v>-0.2621830498131694</v>
       </c>
       <c r="AR17">
-        <v>-0.2922548206748199</v>
+        <v>-0.3788601787194756</v>
       </c>
       <c r="AS17">
         <v>-0.3788601787194756</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-0.3788601787194756</v>
       </c>
-      <c r="BA17">
-        <v>-0.3788601787194756</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>5.65615987623711</v>
-      </c>
-      <c r="AH18">
-        <v>5.239924956194009</v>
-      </c>
-      <c r="AI18">
-        <v>6.500726910917431</v>
-      </c>
-      <c r="AJ18">
-        <v>7.646686360125354</v>
-      </c>
-      <c r="AK18">
-        <v>2.400636141284007</v>
-      </c>
       <c r="AL18">
-        <v>2.615473160512094</v>
+        <v>1.000460077742393</v>
       </c>
       <c r="AM18">
-        <v>3.641394924652763</v>
+        <v>1.565839745803776</v>
       </c>
       <c r="AN18">
-        <v>3.047021998603694</v>
+        <v>1.546011466763297</v>
       </c>
       <c r="AO18">
-        <v>1.051076119742622</v>
+        <v>5.778276958487227</v>
       </c>
       <c r="AP18">
-        <v>1.143447910967632</v>
+        <v>2.138492443986739</v>
       </c>
       <c r="AQ18">
-        <v>1.289162234149188</v>
+        <v>1.878976297039481</v>
       </c>
       <c r="AR18">
-        <v>1.658286804611153</v>
+        <v>2.181307424743695</v>
       </c>
       <c r="AS18">
-        <v>1.096154841579633</v>
+        <v>0.8520283695166997</v>
       </c>
       <c r="AT18">
-        <v>0.5341373531255966</v>
+        <v>0.005756553697899847</v>
       </c>
       <c r="AU18">
-        <v>0.3834998555659386</v>
+        <v>0.0512320434504332</v>
       </c>
       <c r="AV18">
-        <v>0.1450123585129193</v>
+        <v>0.05771202657300911</v>
       </c>
       <c r="AW18">
         <v>0.05771202657300911</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>0.05771202657300911</v>
       </c>
-      <c r="BA18">
-        <v>0.05771202657300911</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>5.094533691406222</v>
-      </c>
-      <c r="AL19">
-        <v>5.123599885192021</v>
-      </c>
-      <c r="AM19">
-        <v>5.17132404790428</v>
-      </c>
-      <c r="AN19">
-        <v>4.705191847484613</v>
-      </c>
-      <c r="AO19">
-        <v>1.599077087820278</v>
-      </c>
       <c r="AP19">
-        <v>0.8149534885014686</v>
+        <v>2.483937396762181</v>
       </c>
       <c r="AQ19">
-        <v>0.7944817836194051</v>
+        <v>2.707799008349898</v>
       </c>
       <c r="AR19">
-        <v>1.625187516801208</v>
+        <v>3.772966775860587</v>
       </c>
       <c r="AS19">
-        <v>1.948880737908265</v>
+        <v>2.397640976910509</v>
       </c>
       <c r="AT19">
-        <v>1.989261364876138</v>
+        <v>-0.1096192596443557</v>
       </c>
       <c r="AU19">
-        <v>1.938634904219727</v>
+        <v>0.2660756331863467</v>
       </c>
       <c r="AV19">
-        <v>1.660123065973873</v>
+        <v>0.2051249733294291</v>
       </c>
       <c r="AW19">
-        <v>1.206367397320696</v>
+        <v>0.299857156820571</v>
       </c>
       <c r="AX19">
-        <v>0.8226227460387703</v>
+        <v>0.4540776569412763</v>
       </c>
       <c r="AY19">
-        <v>0.6741729974461208</v>
+        <v>0.5998844096825495</v>
       </c>
       <c r="AZ19">
-        <v>0.6213128948874713</v>
-      </c>
-      <c r="BA19">
         <v>0.6062046309774693</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>0.2486314804081013</v>
-      </c>
-      <c r="AP20">
-        <v>0.1965059904556199</v>
-      </c>
-      <c r="AQ20">
-        <v>0.3288060007850202</v>
-      </c>
-      <c r="AR20">
-        <v>0.723958527140045</v>
-      </c>
-      <c r="AS20">
-        <v>1.232995400643455</v>
-      </c>
       <c r="AT20">
-        <v>1.298944713281758</v>
+        <v>-0.1435426231004566</v>
       </c>
       <c r="AU20">
-        <v>1.384841695819983</v>
+        <v>0.2967096123072999</v>
       </c>
       <c r="AV20">
-        <v>1.72793457760001</v>
+        <v>0.1681072227950775</v>
       </c>
       <c r="AW20">
-        <v>1.633286107605558</v>
+        <v>-0.3196142230178167</v>
       </c>
       <c r="AX20">
-        <v>0.7913507800473507</v>
+        <v>-0.1815195499670796</v>
       </c>
       <c r="AY20">
-        <v>0.6176776338479684</v>
+        <v>0.1733734969819434</v>
       </c>
       <c r="AZ20">
-        <v>0.5837874231427564</v>
-      </c>
-      <c r="BA20">
-        <v>0.5310616179077465</v>
+        <v>0.3877310837361314</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>1.615698050067449</v>
-      </c>
-      <c r="AT21">
-        <v>1.455881632343736</v>
-      </c>
-      <c r="AU21">
-        <v>1.415451701035386</v>
-      </c>
-      <c r="AV21">
-        <v>1.354425360513334</v>
-      </c>
-      <c r="AW21">
-        <v>1.089604055353255</v>
-      </c>
       <c r="AX21">
-        <v>0.6451514854495022</v>
+        <v>-0.2202168355973866</v>
       </c>
       <c r="AY21">
-        <v>0.4817897817150696</v>
+        <v>0.05961442020945285</v>
       </c>
       <c r="AZ21">
-        <v>0.558089352763913</v>
-      </c>
-      <c r="BA21">
-        <v>0.4756940923402064</v>
+        <v>0.3721192462383671</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.366951734963306</v>
-      </c>
-      <c r="AX22">
-        <v>0.7859062560709784</v>
-      </c>
-      <c r="AY22">
-        <v>0.6170222909582357</v>
-      </c>
-      <c r="AZ22">
-        <v>0.6134070760207777</v>
-      </c>
-      <c r="BA22">
-        <v>0.4216829733429739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.4567803527864678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-2.015335584265165</v>
       </c>
       <c r="AG17">
-        <v>-5.210209911466245</v>
+        <v>-7.039580829602599</v>
       </c>
       <c r="AH17">
         <v>-4.352425014431304</v>
@@ -2451,19 +2451,19 @@
         <v>-1.215549235925828</v>
       </c>
       <c r="AG18">
-        <v>-2.349089443609143</v>
+        <v>-9.8517087047166</v>
       </c>
       <c r="AH18">
-        <v>0.03547044462246518</v>
+        <v>0.9348518890383684</v>
       </c>
       <c r="AI18">
-        <v>-4.454337270215236</v>
+        <v>-2.824222064391513</v>
       </c>
       <c r="AJ18">
-        <v>-3.579597300369253</v>
+        <v>-5.665308402785496</v>
       </c>
       <c r="AK18">
-        <v>-1.897775264882628</v>
+        <v>-3.576917127357704</v>
       </c>
       <c r="AL18">
         <v>-1.761645650979182</v>
@@ -2522,31 +2522,31 @@
         <v>-0.4250406608587998</v>
       </c>
       <c r="AG19">
-        <v>-1.680834948768117</v>
+        <v>-4.479851147562341</v>
       </c>
       <c r="AH19">
-        <v>-0.650768029496851</v>
+        <v>-0.24428437256927</v>
       </c>
       <c r="AI19">
-        <v>-3.012953608516933</v>
+        <v>-1.614002587018648</v>
       </c>
       <c r="AJ19">
-        <v>-1.403103901755631</v>
+        <v>-4.458023117238197</v>
       </c>
       <c r="AK19">
-        <v>4.997412520017441</v>
+        <v>-1.507094401446341</v>
       </c>
       <c r="AL19">
-        <v>3.765721202592909</v>
+        <v>5.161235657134777</v>
       </c>
       <c r="AM19">
-        <v>3.304925622412869</v>
+        <v>2.828271820504558</v>
       </c>
       <c r="AN19">
-        <v>4.461954539041502</v>
+        <v>3.55216262984841</v>
       </c>
       <c r="AO19">
-        <v>4.787836378515364</v>
+        <v>4.837108932100898</v>
       </c>
       <c r="AP19">
         <v>5.20787683103745</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-2.573884875185206</v>
-      </c>
       <c r="AJ20">
-        <v>-2.106666777714394</v>
+        <v>-3.302709263350878</v>
       </c>
       <c r="AK20">
-        <v>0.04105997856413968</v>
+        <v>-2.141530215829379</v>
       </c>
       <c r="AL20">
-        <v>-0.3802214803458437</v>
+        <v>0.139307898681329</v>
       </c>
       <c r="AM20">
-        <v>-0.4653479251390702</v>
+        <v>-0.6956600178888661</v>
       </c>
       <c r="AN20">
-        <v>0.7797949948739058</v>
+        <v>-0.553429447819942</v>
       </c>
       <c r="AO20">
-        <v>1.112953228460167</v>
+        <v>0.7337317298176327</v>
       </c>
       <c r="AP20">
-        <v>3.217995704408838</v>
+        <v>2.430255857698493</v>
       </c>
       <c r="AQ20">
-        <v>-0.5032298616872488</v>
+        <v>1.970682684900016</v>
       </c>
       <c r="AR20">
-        <v>-1.305206755692701</v>
+        <v>-1.174920835225968</v>
       </c>
       <c r="AS20">
-        <v>-0.49899188013105</v>
+        <v>-0.440616923475845</v>
       </c>
       <c r="AT20">
         <v>-0.9008525709169546</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>-0.6077136448638276</v>
-      </c>
       <c r="AN21">
-        <v>0.06037611340699023</v>
+        <v>-0.5544808742553142</v>
       </c>
       <c r="AO21">
-        <v>0.9808218911315336</v>
+        <v>0.1515852927075345</v>
       </c>
       <c r="AP21">
-        <v>6.053690421905267</v>
+        <v>1.530485860599651</v>
       </c>
       <c r="AQ21">
-        <v>0.34496349151385</v>
+        <v>5.462250257438339</v>
       </c>
       <c r="AR21">
-        <v>0.5821000732047832</v>
+        <v>0.1140263184959966</v>
       </c>
       <c r="AS21">
-        <v>2.610266500707703</v>
+        <v>1.366292825135784</v>
       </c>
       <c r="AT21">
-        <v>0.6027009207580036</v>
+        <v>1.982587461121343</v>
       </c>
       <c r="AU21">
-        <v>0.2229020320597241</v>
+        <v>1.058598619486295</v>
       </c>
       <c r="AV21">
-        <v>0.0845726262934221</v>
+        <v>0.02017133142708794</v>
       </c>
       <c r="AW21">
-        <v>0.5084754301873051</v>
+        <v>0.5138342970629539</v>
       </c>
       <c r="AX21">
         <v>0.2738544794132824</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>0.5672797940583507</v>
-      </c>
       <c r="AR22">
-        <v>1.2589213917376</v>
+        <v>0.4537968450164076</v>
       </c>
       <c r="AS22">
-        <v>4.039856122972485</v>
+        <v>1.751045701357046</v>
       </c>
       <c r="AT22">
-        <v>2.142748860774391</v>
+        <v>3.705158876392711</v>
       </c>
       <c r="AU22">
-        <v>-0.08457672677967265</v>
+        <v>2.37789296420865</v>
       </c>
       <c r="AV22">
-        <v>0.1341520870597357</v>
+        <v>-0.3342090768664097</v>
       </c>
       <c r="AW22">
-        <v>0.0148008406940292</v>
+        <v>0.3554489813896833</v>
       </c>
       <c r="AX22">
-        <v>0.2681899963140832</v>
+        <v>-0.108077553478092</v>
       </c>
       <c r="AY22">
-        <v>0.2312068876759277</v>
+        <v>0.2382702494847289</v>
       </c>
       <c r="AZ22">
-        <v>0.9724700385226326</v>
+        <v>0.7917104405398501</v>
       </c>
       <c r="BA22">
-        <v>0.9584581489103794</v>
+        <v>0.9785056085252597</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.1168367971344231</v>
-      </c>
       <c r="AV23">
-        <v>0.2934959097978362</v>
+        <v>-0.245702871227238</v>
       </c>
       <c r="AW23">
-        <v>-0.03323283734834037</v>
+        <v>0.4862471651742917</v>
       </c>
       <c r="AX23">
-        <v>-0.09438668342220957</v>
+        <v>-0.1469207939223893</v>
       </c>
       <c r="AY23">
-        <v>-0.4074819591325718</v>
+        <v>-0.01234339085522951</v>
       </c>
       <c r="AZ23">
-        <v>0.6236501628417823</v>
+        <v>-0.1189552196680044</v>
       </c>
       <c r="BA23">
-        <v>0.6809779381435677</v>
+        <v>0.5647443720418144</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-0.4611746079666523</v>
-      </c>
       <c r="AZ24">
-        <v>0.4935659697840933</v>
+        <v>-0.2567703641593533</v>
       </c>
       <c r="BA24">
-        <v>0.7593859241145307</v>
+        <v>0.478042985794036</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>0.5596042063468198</v>
+      </c>
+      <c r="C3">
+        <v>0.1825419310453436</v>
+      </c>
+      <c r="D3">
+        <v>-0.180093374131185</v>
+      </c>
+      <c r="E3">
+        <v>-0.009261555895478946</v>
+      </c>
+      <c r="F3">
+        <v>0.348613976222456</v>
+      </c>
+      <c r="G3">
+        <v>0.02125477897392258</v>
+      </c>
+      <c r="H3">
+        <v>0.1378930438326487</v>
+      </c>
+      <c r="I3">
+        <v>0.1645590530038321</v>
+      </c>
+      <c r="J3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="K3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="L3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="M3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="N3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="O3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="P3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Q3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="R3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="S3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="T3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="U3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="V3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="W3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="X3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Y3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Z3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AA3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AB3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AC3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AD3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AE3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AF3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AG3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AH3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AI3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AK3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AL3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AM3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AN3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AO3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AP3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AR3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AS3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AT3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AU3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AV3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AW3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AX3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AY3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="BA3">
+        <v>0.2361821772587591</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>0.4235526809466261</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>0.4671277234259641</v>
+        <v>0.1109034792576846</v>
       </c>
       <c r="D4">
-        <v>0.6466961714006292</v>
+        <v>-0.001709730905830043</v>
       </c>
       <c r="E4">
-        <v>0.5860699690882987</v>
+        <v>0.1145211022186787</v>
       </c>
       <c r="F4">
-        <v>0.5719394752520701</v>
+        <v>0.1555182634501051</v>
       </c>
       <c r="G4">
-        <v>0.5719394752520701</v>
+        <v>-1.404263945418582</v>
       </c>
       <c r="H4">
-        <v>0.5719394752520701</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="I4">
-        <v>0.5719394752520701</v>
+        <v>-0.1878451124955771</v>
       </c>
       <c r="J4">
-        <v>0.5719394752520701</v>
+        <v>0.07112839993437259</v>
       </c>
       <c r="K4">
-        <v>0.5719394752520701</v>
+        <v>0.05207435813390227</v>
       </c>
       <c r="L4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="M4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="N4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="O4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="P4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Q4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="R4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="S4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="T4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="U4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="V4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="W4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="X4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Y4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Z4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AA4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AB4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AC4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AD4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AE4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AF4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AG4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AH4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AI4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AJ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AK4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AL4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AM4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AN4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AO4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AP4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AQ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AR4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AS4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AT4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AU4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AV4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AW4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AX4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AY4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AZ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="BA4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>0.6439341879002525</v>
-      </c>
-      <c r="C5">
-        <v>-0.3623658873974311</v>
-      </c>
-      <c r="D5">
-        <v>-0.5718076928962645</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>-0.3042113081857534</v>
+        <v>-0.0004753908946608654</v>
       </c>
       <c r="F5">
-        <v>-0.0412904280341464</v>
+        <v>0.4939126786709158</v>
       </c>
       <c r="G5">
-        <v>-0.0412904280341464</v>
+        <v>-0.807808220045203</v>
       </c>
       <c r="H5">
-        <v>0.1948678350150335</v>
+        <v>0.6938817570587785</v>
       </c>
       <c r="I5">
-        <v>0.1948678350150335</v>
+        <v>1.692932643509826</v>
       </c>
       <c r="J5">
-        <v>0.1948678350150335</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="K5">
-        <v>0.1948678350150335</v>
+        <v>1.605821507009142</v>
       </c>
       <c r="L5">
-        <v>0.1948678350150335</v>
+        <v>1.840891710989334</v>
       </c>
       <c r="M5">
-        <v>0.1948678350150335</v>
+        <v>1.840891710989334</v>
       </c>
       <c r="N5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="O5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="P5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Q5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="R5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="S5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="T5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="U5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="V5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="W5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="X5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Y5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Z5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AA5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AB5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AC5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AD5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AE5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AF5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AG5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AH5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AI5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AJ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AK5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AL5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AM5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AN5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AO5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AP5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AQ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AR5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AS5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AT5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AU5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AV5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AW5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AX5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AY5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AZ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="BA5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>0.5596042063467976</v>
-      </c>
-      <c r="C6">
-        <v>0.1825419310453658</v>
-      </c>
-      <c r="D6">
-        <v>-0.1800933741311961</v>
-      </c>
-      <c r="E6">
-        <v>-0.009261555895478946</v>
-      </c>
-      <c r="F6">
-        <v>0.3486139762225005</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>0.02125477897396699</v>
+        <v>-0.6422233592845772</v>
       </c>
       <c r="H6">
-        <v>0.1378930438326487</v>
+        <v>0.0706817900337553</v>
       </c>
       <c r="I6">
-        <v>0.1645590530038321</v>
+        <v>0.6262577107155831</v>
       </c>
       <c r="J6">
-        <v>0.2361821772587591</v>
+        <v>0.9614071719361794</v>
       </c>
       <c r="K6">
-        <v>0.2361821772587591</v>
+        <v>1.020829760720687</v>
       </c>
       <c r="L6">
-        <v>0.2361821772587591</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="M6">
-        <v>0.2361821772587591</v>
+        <v>0.9629872437042719</v>
       </c>
       <c r="N6">
-        <v>0.2361821772587591</v>
+        <v>1.114185601241036</v>
       </c>
       <c r="O6">
-        <v>0.2361821772587591</v>
+        <v>1.114185601241036</v>
       </c>
       <c r="P6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Q6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="R6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="S6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="T6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="U6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="V6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="W6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="X6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Y6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Z6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AA6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AB6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AC6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AD6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AE6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AF6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AG6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AH6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AI6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AJ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AK6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AL6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AM6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AN6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AO6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AP6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AQ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AR6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AS6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AT6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AU6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AV6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AW6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AX6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AY6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AZ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="BA6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>0.1109034792576846</v>
-      </c>
-      <c r="D7">
-        <v>-0.001709730905830043</v>
-      </c>
-      <c r="E7">
-        <v>0.1145211022186787</v>
-      </c>
-      <c r="F7">
-        <v>0.1555182634501051</v>
-      </c>
-      <c r="G7">
-        <v>-1.404263945418582</v>
-      </c>
-      <c r="H7">
-        <v>-0.1384957661262898</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>-0.1878451124956104</v>
+        <v>0.561252595082129</v>
       </c>
       <c r="J7">
-        <v>0.07112839993437259</v>
+        <v>0.8364782654058267</v>
       </c>
       <c r="K7">
-        <v>0.05207435813390227</v>
+        <v>1.148272834981245</v>
       </c>
       <c r="L7">
-        <v>0.1732386938002817</v>
+        <v>1.09290550768979</v>
       </c>
       <c r="M7">
-        <v>0.1732386938002817</v>
+        <v>0.6772121200332215</v>
       </c>
       <c r="N7">
-        <v>0.1732386938002817</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="O7">
-        <v>0.1732386938002817</v>
+        <v>0.8868187137053063</v>
       </c>
       <c r="P7">
-        <v>0.1732386938002817</v>
+        <v>0.7908909437269962</v>
       </c>
       <c r="Q7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="R7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="S7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="T7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="U7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="V7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="W7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="X7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="Y7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="Z7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AA7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AB7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AC7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AD7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AE7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AF7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AG7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AH7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AI7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AJ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AK7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AL7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AM7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AN7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AO7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AP7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AQ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AR7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AS7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AT7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AU7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AV7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AW7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AX7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AY7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AZ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="BA7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-0.0004753908946608654</v>
-      </c>
-      <c r="F8">
-        <v>0.4939126786708936</v>
-      </c>
-      <c r="G8">
-        <v>-0.807808220045203</v>
-      </c>
-      <c r="H8">
-        <v>0.6938817570587785</v>
-      </c>
-      <c r="I8">
-        <v>1.692932643509848</v>
-      </c>
-      <c r="J8">
-        <v>1.566479473280147</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>1.605821507009142</v>
+        <v>1.11774163470888</v>
       </c>
       <c r="L8">
-        <v>1.840891710989356</v>
+        <v>1.307373695439495</v>
       </c>
       <c r="M8">
-        <v>1.840891710989356</v>
+        <v>1.258913537332873</v>
       </c>
       <c r="N8">
-        <v>2.130327852244052</v>
+        <v>0.960760217268164</v>
       </c>
       <c r="O8">
-        <v>2.130327852244052</v>
+        <v>1.019715257608933</v>
       </c>
       <c r="P8">
-        <v>2.130327852244052</v>
+        <v>0.9180054319587239</v>
       </c>
       <c r="Q8">
-        <v>2.130327852244052</v>
+        <v>0.8526770253993288</v>
       </c>
       <c r="R8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="S8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="T8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="U8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="V8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="W8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="X8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="Y8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="Z8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AA8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AB8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AC8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AD8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AE8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AF8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AG8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AH8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AI8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AJ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AK8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AL8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AM8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AN8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AO8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AP8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AQ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AR8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AS8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AT8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AU8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AV8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AW8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AX8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AY8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AZ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="BA8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-0.6422233592845883</v>
-      </c>
-      <c r="H9">
-        <v>0.07068179003371089</v>
-      </c>
-      <c r="I9">
-        <v>0.6262577107155831</v>
-      </c>
-      <c r="J9">
-        <v>0.9614071719361794</v>
-      </c>
-      <c r="K9">
-        <v>1.020829760720643</v>
-      </c>
-      <c r="L9">
-        <v>0.7307568962936939</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.9629872437042719</v>
+        <v>1.12914587393198</v>
       </c>
       <c r="N9">
-        <v>1.114185601241058</v>
+        <v>0.8158227987355327</v>
       </c>
       <c r="O9">
-        <v>1.114185601241058</v>
+        <v>0.9536145745415947</v>
       </c>
       <c r="P9">
-        <v>1.019364148315161</v>
+        <v>1.375398114243231</v>
       </c>
       <c r="Q9">
-        <v>1.019364148315161</v>
+        <v>2.173959184500363</v>
       </c>
       <c r="R9">
-        <v>1.019364148315161</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="S9">
-        <v>1.019364148315161</v>
+        <v>2.015454603059808</v>
       </c>
       <c r="T9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="U9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="V9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="W9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="X9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="Y9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="Z9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AA9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AB9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AC9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AD9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AE9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AF9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AG9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AH9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AI9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AJ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AK9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AL9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AM9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AN9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AO9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AP9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AQ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AR9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AS9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AT9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AU9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AV9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AW9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AX9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AY9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AZ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="BA9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>0.5612525950821512</v>
-      </c>
-      <c r="J10">
-        <v>0.8364782654058045</v>
-      </c>
-      <c r="K10">
-        <v>1.148272834981245</v>
-      </c>
-      <c r="L10">
-        <v>1.09290550768979</v>
-      </c>
-      <c r="M10">
-        <v>0.6772121200332215</v>
-      </c>
-      <c r="N10">
-        <v>0.818818812164257</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.8868187137053507</v>
+        <v>0.8337828057859209</v>
       </c>
       <c r="P10">
-        <v>0.7908909437270184</v>
+        <v>1.020149226470868</v>
       </c>
       <c r="Q10">
-        <v>0.8966256141480056</v>
+        <v>1.566646323486065</v>
       </c>
       <c r="R10">
-        <v>0.8966256141480056</v>
+        <v>1.47327408793585</v>
       </c>
       <c r="S10">
-        <v>0.8966256141480056</v>
+        <v>1.707434489470039</v>
       </c>
       <c r="T10">
-        <v>0.8966256141480056</v>
+        <v>1.755995812646982</v>
       </c>
       <c r="U10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="V10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="W10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="X10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="Y10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="Z10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AA10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AB10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AC10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AD10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AE10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AF10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AG10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AH10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AI10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AJ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AK10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AL10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AM10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AN10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AO10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AP10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AQ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AR10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AS10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AT10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AU10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AV10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AW10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AX10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AY10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AZ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="BA10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.117741634708835</v>
-      </c>
-      <c r="L11">
-        <v>1.307373695439495</v>
-      </c>
-      <c r="M11">
-        <v>1.258913537332895</v>
-      </c>
-      <c r="N11">
-        <v>0.9607602172681418</v>
-      </c>
-      <c r="O11">
-        <v>1.019715257608911</v>
-      </c>
-      <c r="P11">
-        <v>0.9180054319587239</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.852677025399351</v>
+        <v>1.509312486952075</v>
       </c>
       <c r="R11">
-        <v>0.4602645177979703</v>
+        <v>1.412309881740748</v>
       </c>
       <c r="S11">
-        <v>0.4602645177979703</v>
+        <v>1.30258347990615</v>
       </c>
       <c r="T11">
-        <v>0.4602645177979703</v>
+        <v>1.681032827388385</v>
       </c>
       <c r="U11">
-        <v>0.4602645177979703</v>
+        <v>1.456988786619817</v>
       </c>
       <c r="V11">
-        <v>0.4602645177979703</v>
+        <v>1.946965557828384</v>
       </c>
       <c r="W11">
-        <v>0.4602645177979703</v>
+        <v>1.889651782168578</v>
       </c>
       <c r="X11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="Y11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="Z11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AA11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AB11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AC11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AD11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AE11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AF11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AG11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AH11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AI11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AJ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AK11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AL11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AM11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AN11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AO11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AP11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AQ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AR11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AS11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AT11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AU11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AV11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AW11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AX11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AY11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AZ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="BA11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>1.12914587393198</v>
-      </c>
-      <c r="N12">
-        <v>0.8158227987355549</v>
-      </c>
-      <c r="O12">
-        <v>0.9536145745415947</v>
-      </c>
-      <c r="P12">
-        <v>1.375398114243209</v>
-      </c>
-      <c r="Q12">
-        <v>2.173959184500385</v>
-      </c>
-      <c r="R12">
-        <v>1.984684278296656</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.015454603059785</v>
+        <v>1.276621165212766</v>
       </c>
       <c r="T12">
-        <v>2.15203587434587</v>
+        <v>1.805432212872282</v>
       </c>
       <c r="U12">
-        <v>2.15203587434587</v>
+        <v>1.84279714442821</v>
       </c>
       <c r="V12">
-        <v>2.15203587434587</v>
+        <v>1.755491062323111</v>
       </c>
       <c r="W12">
-        <v>2.15203587434587</v>
+        <v>1.131202984360957</v>
       </c>
       <c r="X12">
-        <v>2.15203587434587</v>
+        <v>1.241332692055597</v>
       </c>
       <c r="Y12">
-        <v>2.15203587434587</v>
+        <v>1.260396653238427</v>
       </c>
       <c r="Z12">
-        <v>2.15203587434587</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="AA12">
-        <v>2.15203587434587</v>
+        <v>0.9397793120336617</v>
       </c>
       <c r="AB12">
-        <v>2.15203587434587</v>
+        <v>0.8882776018738658</v>
       </c>
       <c r="AC12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AD12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AE12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AF12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AG12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AH12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AI12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AJ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AK12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AL12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AM12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AN12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AO12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AP12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AQ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AR12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AS12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AT12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AU12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AV12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AW12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AX12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AY12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AZ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="BA12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.8337828057859653</v>
-      </c>
-      <c r="P13">
-        <v>1.020149226470868</v>
-      </c>
-      <c r="Q13">
-        <v>1.566646323486043</v>
-      </c>
-      <c r="R13">
-        <v>1.473274087935805</v>
-      </c>
-      <c r="S13">
-        <v>1.707434489469994</v>
-      </c>
-      <c r="T13">
-        <v>1.755995812646982</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.918040486507278</v>
+        <v>1.884429743495364</v>
       </c>
       <c r="V13">
-        <v>1.918040486507278</v>
+        <v>1.886555946718671</v>
       </c>
       <c r="W13">
-        <v>1.918040486507278</v>
+        <v>1.657737120813474</v>
       </c>
       <c r="X13">
-        <v>1.918040486507278</v>
+        <v>1.580042106786372</v>
       </c>
       <c r="Y13">
-        <v>1.918040486507278</v>
+        <v>1.567743002885069</v>
       </c>
       <c r="Z13">
-        <v>1.918040486507278</v>
+        <v>0.7767182380207682</v>
       </c>
       <c r="AA13">
-        <v>1.918040486507278</v>
+        <v>0.5757500748109434</v>
       </c>
       <c r="AB13">
-        <v>1.918040486507278</v>
+        <v>1.592885137608979</v>
       </c>
       <c r="AC13">
-        <v>1.918040486507278</v>
+        <v>1.308235387832934</v>
       </c>
       <c r="AD13">
-        <v>1.918040486507278</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="AE13">
-        <v>1.918040486507278</v>
+        <v>1.364710965483651</v>
       </c>
       <c r="AF13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AG13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AH13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AI13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AJ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AK13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AL13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AM13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AN13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AO13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AP13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AQ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AR13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AS13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AT13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AU13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AV13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AW13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AX13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AY13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AZ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="BA13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.509312486952075</v>
-      </c>
-      <c r="R14">
-        <v>1.412309881740725</v>
-      </c>
-      <c r="S14">
-        <v>1.30258347990615</v>
-      </c>
-      <c r="T14">
-        <v>1.681032827388362</v>
-      </c>
-      <c r="U14">
-        <v>1.456988786619839</v>
-      </c>
-      <c r="V14">
-        <v>1.946965557828384</v>
-      </c>
-      <c r="W14">
-        <v>1.889651782168622</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>1.673405723817378</v>
+        <v>1.56650580602562</v>
       </c>
       <c r="Y14">
-        <v>1.673405723817378</v>
+        <v>1.578653627013171</v>
       </c>
       <c r="Z14">
-        <v>1.673405723817378</v>
+        <v>1.165907583951142</v>
       </c>
       <c r="AA14">
-        <v>1.673405723817378</v>
+        <v>1.030688008679626</v>
       </c>
       <c r="AB14">
-        <v>1.673405723817378</v>
+        <v>1.604795846351492</v>
       </c>
       <c r="AC14">
-        <v>1.673405723817378</v>
+        <v>1.242807488305697</v>
       </c>
       <c r="AD14">
-        <v>1.673405723817378</v>
+        <v>1.316199564471554</v>
       </c>
       <c r="AE14">
-        <v>1.673405723817378</v>
+        <v>0.9437384066259158</v>
       </c>
       <c r="AF14">
-        <v>1.673405723817378</v>
+        <v>-2.015335584265165</v>
       </c>
       <c r="AG14">
-        <v>1.673405723817378</v>
+        <v>-7.03958082960261</v>
       </c>
       <c r="AH14">
-        <v>1.673405723817378</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="AI14">
-        <v>1.673405723817378</v>
+        <v>-4.277673934072568</v>
       </c>
       <c r="AJ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AK14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AL14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AM14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AN14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AO14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AP14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AQ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AR14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AS14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AT14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AU14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AV14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AW14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AX14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AY14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AZ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="BA14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.276621165212766</v>
-      </c>
-      <c r="T15">
-        <v>1.80543221287226</v>
-      </c>
-      <c r="U15">
-        <v>1.842797144428188</v>
-      </c>
-      <c r="V15">
-        <v>1.755491062323111</v>
-      </c>
-      <c r="W15">
-        <v>1.131202984360957</v>
-      </c>
-      <c r="X15">
-        <v>1.241332692055597</v>
-      </c>
-      <c r="Y15">
-        <v>1.260396653238383</v>
-      </c>
-      <c r="Z15">
-        <v>1.06432145354225</v>
-      </c>
-      <c r="AA15">
-        <v>0.9397793120336395</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.8882776018738214</v>
+        <v>1.391574619673941</v>
       </c>
       <c r="AC15">
-        <v>0.7965036850253293</v>
+        <v>1.228984864088933</v>
       </c>
       <c r="AD15">
-        <v>0.7965036850253293</v>
+        <v>1.197419561375934</v>
       </c>
       <c r="AE15">
-        <v>0.7965036850253293</v>
+        <v>0.9049590709689692</v>
       </c>
       <c r="AF15">
-        <v>0.7965036850253293</v>
+        <v>-1.215549235925817</v>
       </c>
       <c r="AG15">
-        <v>0.7965036850253293</v>
+        <v>-9.851708704716611</v>
       </c>
       <c r="AH15">
-        <v>0.7965036850253293</v>
+        <v>0.9348518890383906</v>
       </c>
       <c r="AI15">
-        <v>0.7965036850253293</v>
+        <v>-2.824222064391535</v>
       </c>
       <c r="AJ15">
-        <v>0.7965036850253293</v>
+        <v>-5.665308402785508</v>
       </c>
       <c r="AK15">
-        <v>0.7965036850253293</v>
+        <v>-3.576917127357704</v>
       </c>
       <c r="AL15">
-        <v>0.7965036850253293</v>
+        <v>-1.761645650979182</v>
       </c>
       <c r="AM15">
-        <v>0.7965036850253293</v>
+        <v>-1.756736100255085</v>
       </c>
       <c r="AN15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AO15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AP15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AQ15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AR15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AS15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AT15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AU15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AV15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AW15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AX15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AY15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AZ15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="BA15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.884429743495408</v>
-      </c>
-      <c r="V16">
-        <v>1.886555946718649</v>
-      </c>
-      <c r="W16">
-        <v>1.657737120813452</v>
-      </c>
-      <c r="X16">
-        <v>1.58004210678635</v>
-      </c>
-      <c r="Y16">
-        <v>1.567743002885069</v>
-      </c>
-      <c r="Z16">
-        <v>0.776718238020746</v>
-      </c>
-      <c r="AA16">
-        <v>0.5757500748109434</v>
-      </c>
-      <c r="AB16">
-        <v>1.592885137608979</v>
-      </c>
-      <c r="AC16">
-        <v>1.308235387832934</v>
-      </c>
-      <c r="AD16">
-        <v>1.361817904277696</v>
-      </c>
-      <c r="AE16">
-        <v>1.364710965483651</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>1.420403924237745</v>
+        <v>-0.4250406608587998</v>
       </c>
       <c r="AG16">
-        <v>1.420403924237745</v>
+        <v>-4.479851147562341</v>
       </c>
       <c r="AH16">
-        <v>1.420403924237745</v>
+        <v>-0.24428437256927</v>
       </c>
       <c r="AI16">
-        <v>1.420403924237745</v>
+        <v>-1.61400258701867</v>
       </c>
       <c r="AJ16">
-        <v>1.420403924237745</v>
+        <v>-4.458023117238186</v>
       </c>
       <c r="AK16">
-        <v>1.420403924237745</v>
+        <v>-1.507094401446352</v>
       </c>
       <c r="AL16">
-        <v>1.420403924237745</v>
+        <v>5.161235657134755</v>
       </c>
       <c r="AM16">
-        <v>1.420403924237745</v>
+        <v>2.828271820504513</v>
       </c>
       <c r="AN16">
-        <v>1.420403924237745</v>
+        <v>3.55216262984841</v>
       </c>
       <c r="AO16">
-        <v>1.420403924237745</v>
+        <v>4.837108932100898</v>
       </c>
       <c r="AP16">
-        <v>1.420403924237745</v>
+        <v>5.20787683103745</v>
       </c>
       <c r="AQ16">
-        <v>1.420403924237745</v>
+        <v>4.776616269723477</v>
       </c>
       <c r="AR16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AS16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AT16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AU16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AV16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AW16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AX16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AY16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AZ16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="BA16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.566505806025598</v>
-      </c>
-      <c r="Y17">
-        <v>1.578653627013149</v>
-      </c>
-      <c r="Z17">
-        <v>1.165907583951165</v>
-      </c>
-      <c r="AA17">
-        <v>1.030688008679626</v>
-      </c>
-      <c r="AB17">
-        <v>1.604795846351514</v>
-      </c>
-      <c r="AC17">
-        <v>1.242807488305719</v>
-      </c>
-      <c r="AD17">
-        <v>1.316199564471554</v>
-      </c>
-      <c r="AE17">
-        <v>0.9437384066259158</v>
-      </c>
-      <c r="AF17">
-        <v>-2.015335584265165</v>
-      </c>
-      <c r="AG17">
-        <v>-7.039580829602599</v>
-      </c>
-      <c r="AH17">
-        <v>-4.352425014431304</v>
-      </c>
-      <c r="AI17">
-        <v>-4.277673934072568</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-4.401478753282284</v>
+        <v>-3.302709263350867</v>
       </c>
       <c r="AK17">
-        <v>-4.401478753282284</v>
+        <v>-2.141530215829379</v>
       </c>
       <c r="AL17">
-        <v>-4.401478753282284</v>
+        <v>0.1393078986812846</v>
       </c>
       <c r="AM17">
-        <v>-4.401478753282284</v>
+        <v>-0.6956600178888661</v>
       </c>
       <c r="AN17">
-        <v>-4.401478753282284</v>
+        <v>-0.5534294478199198</v>
       </c>
       <c r="AO17">
-        <v>-4.401478753282284</v>
+        <v>0.7337317298176549</v>
       </c>
       <c r="AP17">
-        <v>-4.401478753282284</v>
+        <v>2.430255857698516</v>
       </c>
       <c r="AQ17">
-        <v>-4.401478753282284</v>
+        <v>1.970682684899994</v>
       </c>
       <c r="AR17">
-        <v>-4.401478753282284</v>
+        <v>-1.17492083522599</v>
       </c>
       <c r="AS17">
-        <v>-4.401478753282284</v>
+        <v>-0.440616923475845</v>
       </c>
       <c r="AT17">
-        <v>-4.401478753282284</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="AU17">
-        <v>-4.401478753282284</v>
+        <v>-0.6887889394080915</v>
       </c>
       <c r="AV17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AW17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AX17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AY17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AZ17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="BA17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.391574619673941</v>
-      </c>
-      <c r="AC18">
-        <v>1.228984864088933</v>
-      </c>
-      <c r="AD18">
-        <v>1.197419561375934</v>
-      </c>
-      <c r="AE18">
-        <v>0.904959070968947</v>
-      </c>
-      <c r="AF18">
-        <v>-1.215549235925828</v>
-      </c>
-      <c r="AG18">
-        <v>-9.8517087047166</v>
-      </c>
-      <c r="AH18">
-        <v>0.9348518890383684</v>
-      </c>
-      <c r="AI18">
-        <v>-2.824222064391513</v>
-      </c>
-      <c r="AJ18">
-        <v>-5.665308402785496</v>
-      </c>
-      <c r="AK18">
-        <v>-3.576917127357704</v>
-      </c>
-      <c r="AL18">
-        <v>-1.761645650979182</v>
-      </c>
-      <c r="AM18">
-        <v>-1.756736100255085</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>-1.740831309918522</v>
+        <v>-0.5544808742552698</v>
       </c>
       <c r="AO18">
-        <v>-1.740831309918522</v>
+        <v>0.1515852927075123</v>
       </c>
       <c r="AP18">
-        <v>-1.740831309918522</v>
+        <v>1.530485860599629</v>
       </c>
       <c r="AQ18">
-        <v>-1.740831309918522</v>
+        <v>5.462250257438317</v>
       </c>
       <c r="AR18">
-        <v>-1.740831309918522</v>
+        <v>0.1140263184959744</v>
       </c>
       <c r="AS18">
-        <v>-1.740831309918522</v>
+        <v>1.366292825135784</v>
       </c>
       <c r="AT18">
-        <v>-1.740831309918522</v>
+        <v>1.982587461121321</v>
       </c>
       <c r="AU18">
-        <v>-1.740831309918522</v>
+        <v>1.058598619486273</v>
       </c>
       <c r="AV18">
-        <v>-1.740831309918522</v>
+        <v>0.02017133142706573</v>
       </c>
       <c r="AW18">
-        <v>-1.740831309918522</v>
+        <v>0.5138342970629317</v>
       </c>
       <c r="AX18">
-        <v>-1.740831309918522</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="AY18">
-        <v>-1.740831309918522</v>
+        <v>0.5424001444948034</v>
       </c>
       <c r="AZ18">
-        <v>-1.740831309918522</v>
+        <v>0.4368922194300628</v>
       </c>
       <c r="BA18">
-        <v>-1.740831309918522</v>
+        <v>0.4368922194300628</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-0.4250406608587998</v>
-      </c>
-      <c r="AG19">
-        <v>-4.479851147562341</v>
-      </c>
-      <c r="AH19">
-        <v>-0.24428437256927</v>
-      </c>
-      <c r="AI19">
-        <v>-1.614002587018648</v>
-      </c>
-      <c r="AJ19">
-        <v>-4.458023117238197</v>
-      </c>
-      <c r="AK19">
-        <v>-1.507094401446341</v>
-      </c>
-      <c r="AL19">
-        <v>5.161235657134777</v>
-      </c>
-      <c r="AM19">
-        <v>2.828271820504558</v>
-      </c>
-      <c r="AN19">
-        <v>3.55216262984841</v>
-      </c>
-      <c r="AO19">
-        <v>4.837108932100898</v>
-      </c>
-      <c r="AP19">
-        <v>5.20787683103745</v>
-      </c>
-      <c r="AQ19">
-        <v>4.776616269723477</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>5.273473699172748</v>
+        <v>0.4537968450164076</v>
       </c>
       <c r="AS19">
-        <v>5.273473699172748</v>
+        <v>1.751045701357046</v>
       </c>
       <c r="AT19">
-        <v>5.273473699172748</v>
+        <v>3.705158876392711</v>
       </c>
       <c r="AU19">
-        <v>5.273473699172748</v>
+        <v>2.37789296420865</v>
       </c>
       <c r="AV19">
-        <v>5.273473699172748</v>
+        <v>-0.3342090768663986</v>
       </c>
       <c r="AW19">
-        <v>5.273473699172748</v>
+        <v>0.3554489813896833</v>
       </c>
       <c r="AX19">
-        <v>5.273473699172748</v>
+        <v>-0.108077553478092</v>
       </c>
       <c r="AY19">
-        <v>5.273473699172748</v>
+        <v>0.2382702494847733</v>
       </c>
       <c r="AZ19">
-        <v>5.273473699172748</v>
+        <v>0.7917104405398501</v>
       </c>
       <c r="BA19">
-        <v>5.273473699172748</v>
+        <v>0.9785056085252597</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-3.302709263350878</v>
-      </c>
-      <c r="AK20">
-        <v>-2.141530215829379</v>
-      </c>
-      <c r="AL20">
-        <v>0.139307898681329</v>
-      </c>
-      <c r="AM20">
-        <v>-0.6956600178888661</v>
-      </c>
-      <c r="AN20">
-        <v>-0.553429447819942</v>
-      </c>
-      <c r="AO20">
-        <v>0.7337317298176327</v>
-      </c>
-      <c r="AP20">
-        <v>2.430255857698493</v>
-      </c>
-      <c r="AQ20">
-        <v>1.970682684900016</v>
-      </c>
-      <c r="AR20">
-        <v>-1.174920835225968</v>
-      </c>
-      <c r="AS20">
-        <v>-0.440616923475845</v>
-      </c>
-      <c r="AT20">
-        <v>-0.9008525709169546</v>
-      </c>
-      <c r="AU20">
-        <v>-0.6887889394080693</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.7058256052666523</v>
+        <v>-0.2457028712272047</v>
       </c>
       <c r="AW20">
-        <v>-0.7058256052666523</v>
+        <v>0.4862471651742917</v>
       </c>
       <c r="AX20">
-        <v>-0.7058256052666523</v>
+        <v>-0.1469207939223782</v>
       </c>
       <c r="AY20">
-        <v>-0.7058256052666523</v>
+        <v>-0.01234339085524061</v>
       </c>
       <c r="AZ20">
-        <v>-0.7058256052666523</v>
+        <v>-0.1189552196680155</v>
       </c>
       <c r="BA20">
-        <v>-0.7058256052666523</v>
+        <v>0.5647443720418144</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-0.5544808742553142</v>
-      </c>
-      <c r="AO21">
-        <v>0.1515852927075345</v>
-      </c>
-      <c r="AP21">
-        <v>1.530485860599651</v>
-      </c>
-      <c r="AQ21">
-        <v>5.462250257438339</v>
-      </c>
-      <c r="AR21">
-        <v>0.1140263184959966</v>
-      </c>
-      <c r="AS21">
-        <v>1.366292825135784</v>
-      </c>
-      <c r="AT21">
-        <v>1.982587461121343</v>
-      </c>
-      <c r="AU21">
-        <v>1.058598619486295</v>
-      </c>
-      <c r="AV21">
-        <v>0.02017133142708794</v>
-      </c>
-      <c r="AW21">
-        <v>0.5138342970629539</v>
-      </c>
-      <c r="AX21">
-        <v>0.2738544794132824</v>
-      </c>
-      <c r="AY21">
-        <v>0.5424001444948257</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>0.4368922194300628</v>
+        <v>-0.2567703641593866</v>
       </c>
       <c r="BA21">
-        <v>0.4368922194300628</v>
+        <v>0.4780429857940138</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>0.4537968450164076</v>
-      </c>
-      <c r="AS22">
-        <v>1.751045701357046</v>
-      </c>
-      <c r="AT22">
-        <v>3.705158876392711</v>
-      </c>
-      <c r="AU22">
-        <v>2.37789296420865</v>
-      </c>
-      <c r="AV22">
-        <v>-0.3342090768664097</v>
-      </c>
-      <c r="AW22">
-        <v>0.3554489813896833</v>
-      </c>
-      <c r="AX22">
-        <v>-0.108077553478092</v>
-      </c>
-      <c r="AY22">
-        <v>0.2382702494847289</v>
-      </c>
-      <c r="AZ22">
-        <v>0.7917104405398501</v>
-      </c>
-      <c r="BA22">
-        <v>0.9785056085252597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-0.245702871227238</v>
-      </c>
-      <c r="AW23">
-        <v>0.4862471651742917</v>
-      </c>
-      <c r="AX23">
-        <v>-0.1469207939223893</v>
-      </c>
-      <c r="AY23">
-        <v>-0.01234339085522951</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.1189552196680044</v>
-      </c>
-      <c r="BA23">
-        <v>0.5647443720418144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-0.2567703641593533</v>
-      </c>
-      <c r="BA24">
-        <v>0.478042985794036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>0.2361821772587591</v>
       </c>
+      <c r="BB3">
+        <v>0.2361821772587591</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>0.1732386938003039</v>
       </c>
+      <c r="BB4">
+        <v>0.1732386938003039</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>2.130327852244007</v>
       </c>
+      <c r="BB5">
+        <v>2.130327852244007</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>1.019364148315116</v>
       </c>
+      <c r="BB6">
+        <v>1.019364148315116</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.8966256141480056</v>
       </c>
+      <c r="BB7">
+        <v>0.8966256141480056</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>0.4602645177979703</v>
       </c>
+      <c r="BB8">
+        <v>0.4602645177979703</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>2.152035874345892</v>
       </c>
+      <c r="BB9">
+        <v>2.152035874345892</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>1.918040486507278</v>
       </c>
+      <c r="BB10">
+        <v>1.918040486507278</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>1.673405723817356</v>
       </c>
+      <c r="BB11">
+        <v>1.673405723817356</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>0.7965036850253515</v>
       </c>
+      <c r="BB12">
+        <v>0.7965036850253515</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>1.420403924237745</v>
       </c>
+      <c r="BB13">
+        <v>1.420403924237745</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-4.401478753282307</v>
       </c>
+      <c r="BB14">
+        <v>-4.401478753282307</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>-1.740831309918522</v>
       </c>
+      <c r="BB15">
+        <v>-1.740831309918522</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>5.27347369917277</v>
       </c>
+      <c r="BB16">
+        <v>5.27347369917277</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.7058256052666523</v>
       </c>
+      <c r="BB17">
+        <v>-0.7058256052666523</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>0.4368922194300628</v>
       </c>
+      <c r="BB18">
+        <v>0.4368922194300628</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>0.9785056085252597</v>
       </c>
+      <c r="BB19">
+        <v>0.8976398032236155</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>0.5647443720418144</v>
       </c>
+      <c r="BB20">
+        <v>0.4275768375374467</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>0.4780429857940138</v>
       </c>
+      <c r="BB21">
+        <v>0.6589725835419058</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
